--- a/biology/Botanique/Tillandsia_mallemontii/Tillandsia_mallemontii.xlsx
+++ b/biology/Botanique/Tillandsia_mallemontii/Tillandsia_mallemontii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia mallemontii Glaz. ex Mez est une plante épiphyte de la famille des Bromeliaceae, originaire du Brésil.
 L'épithète spécifique mallemontii est une dédicace à un Mr Mallemont dont ni l'identité ni le rapport avec la plante ne sont précisés dans le protologue.
@@ -512,12 +524,14 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia mallemontii Mez in Mart., Fl. Bras. 3(3): 608, tab. 114, fig.I (1894)
-Diagnose originale[1] :
+Diagnose originale :
 « TILLANDSIA MALLEMONTII Glaziou : foliis distiche dispositis caulem elongatum vestientibus, subteretibus, lepidibus maximis dense pruinosis; inflorescentia scapo nudo vel 1-vaginato elata perpauciflora, simplicissima distiche spicata, folia paullo superante; bracteis ovali-ovatis, acutis, dorso lepidotis, quam sepala brevioribus; sepalis basi ad 2 mm. aequaliter connatis, glabris; petalis lamina maxima, suborbiculari, patenti anctis; staminibus quam petala triplo brevioribus, antheris obtusis, stylo staminibus breviore. »
-Type : Mez cite[1] deux exemplaires de même provenance : leg. Glaziou, n° 14345 &amp; 18563 ; « in Brasiliae orientalis prov. Rio de Janeiro ad Tijucá ». Mez détaille les données du premier et ne fait que citer le second par « idem ». On peut donc considérer que la désignation du type n'est pas explicite, dans ce cas c'est l'illustration du protologue qui constituerait l'holotype de Tillandsia mallemontii.
+Type : Mez cite deux exemplaires de même provenance : leg. Glaziou, n° 14345 &amp; 18563 ; « in Brasiliae orientalis prov. Rio de Janeiro ad Tijucá ». Mez détaille les données du premier et ne fait que citer le second par « idem ». On peut donc considérer que la désignation du type n'est pas explicite, dans ce cas c'est l'illustration du protologue qui constituerait l'holotype de Tillandsia mallemontii.
 leg. A. Glaziou, n° 14345 ; « Rio de Janeiro » ; Lectotypus B (B 10 0243503)
 leg. A. Glaziou, n° 14345 ; « bei Tijuca » ; Isolectotypus B (B 10 0243504)</t>
         </is>
@@ -549,11 +563,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia linearis sensu Baker non Vell. [1],[2],[3]
-Phytarrhiza uniflora E.Morren ex Baker [3]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(aucune)
+</t>
         </is>
       </c>
     </row>
@@ -578,15 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Synonymie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Touffe dense de courts rameaux. Fines feuilles distiques écailleuses.
-Inflorescence terminale distique, pauciflore [(1)-2-4]. Fleurs parfumées à pétales étalés, violets, à étamines ne dépassant pas la corolle.
-Tillandsia mallemontii ressemble à Tillandsia recurvata L., qui a de plus petites fleurs et la confusion est donc possible hors floraison[2],[3],[4].
-</t>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia linearis sensu Baker non Vell. 
+Phytarrhiza uniflora E.Morren ex Baker </t>
         </is>
       </c>
     </row>
@@ -611,14 +632,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée vivace ; épiphyte[2],[3], rarement saxicole[3].
-Habitat : arbres et chablis[2],[3], rarement rochers[3]; forêts pluviales[4].
-Altitude : 0-800 m[3].</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Touffe dense de courts rameaux. Fines feuilles distiques écailleuses.
+Inflorescence terminale distique, pauciflore [(1)-2-4]. Fleurs parfumées à pétales étalés, violets, à étamines ne dépassant pas la corolle.
+Tillandsia mallemontii ressemble à Tillandsia recurvata L., qui a de plus petites fleurs et la confusion est donc possible hors floraison.
+</t>
         </is>
       </c>
     </row>
@@ -643,14 +667,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Brésil [2],[3].
-Est du Brésil (Rio de Janeiro)[1].</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée vivace ; épiphyte rarement saxicole.
+Habitat : arbres et chablis rarement rochers; forêts pluviales.
+Altitude : 0-800 m.</t>
         </is>
       </c>
     </row>
@@ -675,12 +701,48 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Brésil ,.
+Est du Brésil (Rio de Janeiro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_mallemontii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_mallemontii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia mallemontii est de culture facile[2],[3],[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia mallemontii est de culture facile.
 Culture sans substrat comme toutes les Tillandsia « aériennes ».
 </t>
         </is>
